--- a/FinalGeo/AppExam/static/data/DatosEncuesta.xlsx
+++ b/FinalGeo/AppExam/static/data/DatosEncuesta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Django\FinalGeo\AppExam\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3063430F-ABB5-4B49-9E08-00112A89C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5616172-657E-4189-969E-7BAF3119DBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" tabRatio="586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="16404" windowHeight="9420" tabRatio="586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosLimpios" sheetId="4" r:id="rId1"/>
@@ -43,9 +43,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
-    <t>Edad</t>
-  </si>
-  <si>
     <t>Colonia</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Cat_Pos_Social</t>
+  </si>
+  <si>
+    <t>Cat_Edad</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,6 +760,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF91A89-C2AE-422F-A0C7-37390A194C2B}">
   <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,100 +1136,100 @@
   <sheetData>
     <row r="1" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -1243,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
         <v>21.149701150678499</v>
@@ -1332,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="8">
         <v>21.1327955030212</v>
@@ -1430,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -1439,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="8">
         <v>21.152736261920602</v>
@@ -1528,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C5" s="11">
         <v>2</v>
@@ -1537,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="8">
         <v>21.1489917372318</v>
@@ -1626,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1635,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="8">
         <v>21.0519795891162</v>
@@ -1723,8 +1726,8 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>22</v>
+      <c r="B7" s="13">
+        <v>2</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
@@ -1733,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="8">
         <v>21.149440990519398</v>
@@ -1822,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -1831,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="8">
         <v>21.1581892048969</v>
@@ -1920,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
@@ -1929,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8">
         <v>21.124690305611999</v>
@@ -2018,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
@@ -2027,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8">
         <v>21.1474006252345</v>
@@ -2116,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2125,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="8">
         <v>21.152736261920602</v>
@@ -2214,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -2223,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
         <v>21.157612556039201</v>
@@ -2312,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -2321,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="8">
         <v>21.117984842073</v>
@@ -2410,7 +2413,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
@@ -2419,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="8">
         <v>21.177089730845001</v>
@@ -2508,7 +2511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -2517,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="8">
         <v>21.114300371382601</v>
@@ -2606,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -2615,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="8">
         <v>21.152736261920602</v>
@@ -2704,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
@@ -2713,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="8">
         <v>21.150453545094798</v>
@@ -2802,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -2811,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="8">
         <v>21.1511263747817</v>
@@ -2900,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2909,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="8">
         <v>21.1511263747817</v>
@@ -2998,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C20" s="11">
         <v>2</v>
@@ -3007,7 +3010,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="8">
         <v>21.150707389248801</v>
@@ -3096,7 +3099,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -3105,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="8">
         <v>21.150453545094798</v>
@@ -3194,7 +3197,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -3203,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="8">
         <v>21.1508247132669</v>
@@ -3292,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -3301,7 +3304,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="8">
         <v>21.079918872952</v>
@@ -3390,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C24" s="11">
         <v>2</v>
@@ -3399,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="8">
         <v>21.1511263747817</v>
@@ -3488,7 +3491,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C25" s="11">
         <v>2</v>
@@ -3497,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8">
         <v>21.160014126401801</v>
@@ -3586,7 +3589,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C26" s="11">
         <v>2</v>
@@ -3595,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="8">
         <v>21.063561381613901</v>
@@ -3684,7 +3687,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C27" s="11">
         <v>2</v>
@@ -3693,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="8">
         <v>21.151462936414699</v>
@@ -3782,7 +3785,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
@@ -3791,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="8">
         <v>21.0297924846674</v>
@@ -3880,7 +3883,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
@@ -3889,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="8">
         <v>21.149956068912399</v>
@@ -3978,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
@@ -3987,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="8">
         <v>21.125520989428299</v>
@@ -4076,7 +4079,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
@@ -4085,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="8">
         <v>21.1031942088097</v>
@@ -4174,7 +4177,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -4183,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="8">
         <v>21.1483850573618</v>
@@ -4272,7 +4275,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C33" s="11">
         <v>2</v>
@@ -4281,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="8">
         <v>21.152616483870201</v>
@@ -4370,7 +4373,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
@@ -4379,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="8">
         <v>21.075067173643699</v>
@@ -4468,7 +4471,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C35" s="11">
         <v>2</v>
@@ -4477,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="8">
         <v>21.081210408075499</v>
@@ -4566,7 +4569,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C36" s="11">
         <v>2</v>
@@ -4575,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="8">
         <v>21.080489640177099</v>
